--- a/current_io_docs.xlsx
+++ b/current_io_docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amir\Documents\git_repos\taxsim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1D6C23-552C-4B8D-B075-5C0DEF00BD69}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1D9945-C020-4416-A91D-52DAD91133EB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16185" windowHeight="7410" xr2:uid="{D03C11A7-0F7D-4097-B472-E5FA9DA97E82}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
   <si>
     <t>filing_status</t>
   </si>
@@ -81,18 +81,6 @@
     <t>INPUTS</t>
   </si>
   <si>
-    <t>gross_income</t>
-  </si>
-  <si>
-    <t>employee_payroll_tax</t>
-  </si>
-  <si>
-    <t>employer_payroll_tax</t>
-  </si>
-  <si>
-    <t>ordinary_income_after_401k</t>
-  </si>
-  <si>
     <t>agi</t>
   </si>
   <si>
@@ -111,15 +99,6 @@
     <t>pease_limitation_amt</t>
   </si>
   <si>
-    <t>income_tax_before_credits</t>
-  </si>
-  <si>
-    <t>qualified_income_tax</t>
-  </si>
-  <si>
-    <t>selected_tax_before_credits</t>
-  </si>
-  <si>
     <t>amt_taxable_income</t>
   </si>
   <si>
@@ -129,51 +108,24 @@
     <t>income_tax_before_credits_with_amt</t>
   </si>
   <si>
-    <t>ctc</t>
-  </si>
-  <si>
-    <t>actc</t>
-  </si>
-  <si>
     <t>eitc</t>
   </si>
   <si>
     <t>dep_credit</t>
   </si>
   <si>
-    <t>income_tax_after_nonrefundable_credits</t>
-  </si>
-  <si>
     <t>medicare_surtax</t>
   </si>
   <si>
     <t>niit</t>
   </si>
   <si>
-    <t>income_tax_after_other_taxes</t>
-  </si>
-  <si>
     <t>income_tax_after_credits</t>
   </si>
   <si>
-    <t>tax_burden</t>
-  </si>
-  <si>
     <t>tax_wedge</t>
   </si>
   <si>
-    <t>avg_effective_tax_rate</t>
-  </si>
-  <si>
-    <t>avg_effective_tax_rate_wo_payroll</t>
-  </si>
-  <si>
-    <t>marginal_income_tax_rate</t>
-  </si>
-  <si>
-    <t>marginal_business_income_tax_rate</t>
-  </si>
-  <si>
     <t>Cash Income</t>
   </si>
   <si>
@@ -198,9 +150,6 @@
     <t>Total income subject to tax after adjustment for exclusions and additions.</t>
   </si>
   <si>
-    <t>Income Tax Liability Amount of income tax owed, including any credits and AMT.</t>
-  </si>
-  <si>
     <t>Net Investment Income Tax</t>
   </si>
   <si>
@@ -247,13 +196,64 @@
   </si>
   <si>
     <t xml:space="preserve">Child Tax Credit </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> income_tax_after_nonrefundable_credits/(gross_income + employer_payroll_tax)</t>
+  </si>
+  <si>
+    <t>Deduction Type</t>
+  </si>
+  <si>
+    <t>Deductions</t>
+  </si>
+  <si>
+    <t>Exemptions</t>
+  </si>
+  <si>
+    <t>Taxable Income for AMT Purposes</t>
+  </si>
+  <si>
+    <t>AMT Liability</t>
+  </si>
+  <si>
+    <t>(in addition to regular tax liability)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regular taxable income plus AMT adjustments minus applicable AMT exemption. </t>
+  </si>
+  <si>
+    <t>Income Tax Liability Amount of income tax owed, including any credits, AMT, the NIIT, and the medicare surtax.</t>
+  </si>
+  <si>
+    <t>Pease Limitation Amount</t>
+  </si>
+  <si>
+    <t>(Includes Pease Limitation when applicable)</t>
+  </si>
+  <si>
+    <t>TO BE ADDED</t>
+  </si>
+  <si>
+    <t>business_income_service</t>
+  </si>
+  <si>
+    <t>vars</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Tooltip</t>
+  </si>
+  <si>
+    <t>Taxable Income Calculation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,8 +261,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,12 +302,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -284,15 +319,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
+    <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -605,327 +664,309 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A248377F-C8B0-4405-98F3-3E7614809E38}">
-  <dimension ref="E1:R32"/>
+  <dimension ref="E1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26.140625" customWidth="1"/>
-    <col min="13" max="13" width="3" customWidth="1"/>
-    <col min="14" max="14" width="3.85546875" customWidth="1"/>
-    <col min="16" max="16" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="76.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="76.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E1" t="s">
+    <row r="1" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E1" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="M2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>0</v>
       </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="M3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>51</v>
-      </c>
-      <c r="R4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="M4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>2</v>
       </c>
-      <c r="K5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="M5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q5" t="s">
-        <v>52</v>
-      </c>
-      <c r="R5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="P5" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>56</v>
-      </c>
-      <c r="R6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="M6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>4</v>
       </c>
-      <c r="K7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>57</v>
-      </c>
-      <c r="R7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="M7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>5</v>
       </c>
-      <c r="K8" t="s">
-        <v>22</v>
-      </c>
-      <c r="P8" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>58</v>
-      </c>
-      <c r="R8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="M8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>6</v>
       </c>
-      <c r="K9" t="s">
-        <v>23</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="M9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Q9" t="s">
-        <v>59</v>
-      </c>
-      <c r="R9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="P9" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>7</v>
       </c>
-      <c r="K10" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>60</v>
-      </c>
-      <c r="R10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="M10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>8</v>
       </c>
-      <c r="K11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="5:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>9</v>
       </c>
-      <c r="K12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="5:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>10</v>
       </c>
-      <c r="K13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="5:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>11</v>
       </c>
-      <c r="K14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>12</v>
       </c>
-      <c r="K15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="M15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>13</v>
       </c>
-      <c r="K16" t="s">
-        <v>30</v>
-      </c>
-      <c r="P16" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="M16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>14</v>
       </c>
-      <c r="K17" t="s">
-        <v>31</v>
-      </c>
-      <c r="P17" t="s">
+      <c r="M17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="M18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="M19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="M20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="24" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
         <v>67</v>
       </c>
-      <c r="Q17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="K18" t="s">
-        <v>32</v>
-      </c>
-      <c r="P18" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="K19" t="s">
-        <v>33</v>
-      </c>
-      <c r="P19" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="K20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="K21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="K22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="K23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="K24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="K25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="K26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="K27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="K28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="K29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="K30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="K31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="K32" t="s">
-        <v>46</v>
+      <c r="M25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="M26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="M27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="30" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="M30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="M31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/current_io_docs.xlsx
+++ b/current_io_docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amir\Documents\git_repos\taxsim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1D9945-C020-4416-A91D-52DAD91133EB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C45D9B6-85E3-4DB4-A092-828DE5925D97}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16185" windowHeight="7410" xr2:uid="{D03C11A7-0F7D-4097-B472-E5FA9DA97E82}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="74">
   <si>
     <t>filing_status</t>
   </si>
@@ -247,6 +247,12 @@
   </si>
   <si>
     <t>Taxable Income Calculation</t>
+  </si>
+  <si>
+    <t>MARG_RATE_BOUND</t>
+  </si>
+  <si>
+    <t>ASSUMED_MORTGAGE_RATE</t>
   </si>
 </sst>
 </file>
@@ -666,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A248377F-C8B0-4405-98F3-3E7614809E38}">
   <dimension ref="E1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,6 +850,12 @@
       <c r="E15" t="s">
         <v>12</v>
       </c>
+      <c r="F15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" t="s">
+        <v>73</v>
+      </c>
       <c r="M15" s="1" t="s">
         <v>16</v>
       </c>

--- a/current_io_docs.xlsx
+++ b/current_io_docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amir\Documents\git_repos\taxsim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C45D9B6-85E3-4DB4-A092-828DE5925D97}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66182E57-EEB5-4162-B5CE-6DC20A59D12F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16185" windowHeight="7410" xr2:uid="{D03C11A7-0F7D-4097-B472-E5FA9DA97E82}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="89">
   <si>
     <t>filing_status</t>
   </si>
@@ -144,9 +144,6 @@
     <t>Income Tax Liability</t>
   </si>
   <si>
-    <t>Adjusted gross income minus personal exemptions and the standard or itemized deductions allowed under the regular income tax.</t>
-  </si>
-  <si>
     <t>Total income subject to tax after adjustment for exclusions and additions.</t>
   </si>
   <si>
@@ -156,9 +153,6 @@
     <t>Payroll Tax Liability</t>
   </si>
   <si>
-    <t>Additional Medicare Payroll Tax</t>
-  </si>
-  <si>
     <t>Total Tax Liability</t>
   </si>
   <si>
@@ -177,15 +171,9 @@
     <t>Additional tax on high-income taxpayers' earnings above specified thresholds.</t>
   </si>
   <si>
-    <t>Total tax liability equals the household's income tax liability plus its payroll tax liability.</t>
-  </si>
-  <si>
     <t>Income tax liability measured as a percentage of total cash income.</t>
   </si>
   <si>
-    <t>ctc + actc</t>
-  </si>
-  <si>
     <t>Earned Income Tax Credit</t>
   </si>
   <si>
@@ -198,9 +186,6 @@
     <t xml:space="preserve">Child Tax Credit </t>
   </si>
   <si>
-    <t xml:space="preserve"> income_tax_after_nonrefundable_credits/(gross_income + employer_payroll_tax)</t>
-  </si>
-  <si>
     <t>Deduction Type</t>
   </si>
   <si>
@@ -237,29 +222,89 @@
     <t>business_income_service</t>
   </si>
   <si>
-    <t>vars</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Tooltip</t>
-  </si>
-  <si>
-    <t>Taxable Income Calculation</t>
-  </si>
-  <si>
     <t>MARG_RATE_BOUND</t>
   </si>
   <si>
     <t>ASSUMED_MORTGAGE_RATE</t>
+  </si>
+  <si>
+    <t>Additional Medicare Tax</t>
+  </si>
+  <si>
+    <t>Adjusted gross income minus personal exemptions and deductions allowed under the regular income tax.</t>
+  </si>
+  <si>
+    <t>income_tax_after_credits/(gross_income + employer_payroll_tax)</t>
+  </si>
+  <si>
+    <t>Total tax liability includes the household's income tax liability plus its payroll tax liability.</t>
+  </si>
+  <si>
+    <t>selected_tax_before_credits</t>
+  </si>
+  <si>
+    <t>ctc</t>
+  </si>
+  <si>
+    <t>actc</t>
+  </si>
+  <si>
+    <t>income_tax_after_nonrefundable_credits</t>
+  </si>
+  <si>
+    <t>Nonrefundable portion of the Child Tax Credit.</t>
+  </si>
+  <si>
+    <t>Tax After Nonrefundable Credits</t>
+  </si>
+  <si>
+    <t>Additional Child Tax Credit</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Alternative Minimum Tax</t>
+  </si>
+  <si>
+    <t>Credits, Payments, and Other Taxes</t>
+  </si>
+  <si>
+    <t>Regular Tax Calculation</t>
+  </si>
+  <si>
+    <t>Regular Tax Before Credits</t>
+  </si>
+  <si>
+    <t>(Does not include AMT liability)</t>
+  </si>
+  <si>
+    <t>Variable Name</t>
+  </si>
+  <si>
+    <t>Readable Name</t>
+  </si>
+  <si>
+    <t>Readable Name (small)</t>
+  </si>
+  <si>
+    <t>Tooltip/description</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Estimated Total Tax Liability</t>
+  </si>
+  <si>
+    <t>Income Tax After Credits and Other Taxes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,6 +338,105 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -317,7 +461,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -340,6 +484,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -347,12 +522,30 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -670,318 +863,442 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A248377F-C8B0-4405-98F3-3E7614809E38}">
-  <dimension ref="E1:P31"/>
+  <dimension ref="E1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.140625" customWidth="1"/>
-    <col min="13" max="13" width="76.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="76.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="65.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="111.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E1" s="4" t="s">
+    <row r="1" spans="5:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N1" t="s">
-        <v>69</v>
-      </c>
-      <c r="P1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="M2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>33</v>
+      <c r="L1" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+    </row>
+    <row r="4" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="L4" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="7"/>
+      <c r="P4" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="L5" s="15"/>
+      <c r="M5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="7"/>
+      <c r="P5" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="L6" s="15"/>
+      <c r="M6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="7"/>
+      <c r="P6" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="L7" s="15"/>
+      <c r="M7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="7"/>
+      <c r="P7" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="L8" s="15"/>
+      <c r="M8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="7"/>
+      <c r="P8" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="L9" s="15"/>
+      <c r="M9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="N9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" s="11"/>
+      <c r="P9" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>49</v>
+      <c r="L10" s="15"/>
+      <c r="M10" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="7"/>
+      <c r="P10" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>8</v>
       </c>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
     </row>
     <row r="12" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="M12" s="13"/>
+    </row>
+    <row r="13" spans="5:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>10</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" s="7"/>
+      <c r="P13" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>11</v>
       </c>
-      <c r="M14" t="s">
-        <v>71</v>
-      </c>
+      <c r="L14" s="16"/>
+      <c r="M14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P14" s="1"/>
     </row>
     <row r="15" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P15" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="L15" s="16"/>
+      <c r="M15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="16" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>13</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="P16" s="3"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" s="1"/>
     </row>
     <row r="17" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>14</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N17" s="2" t="s">
+      <c r="L17" s="16"/>
+      <c r="M17" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L18" s="16"/>
+      <c r="M18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="O18" s="7"/>
+      <c r="P18" s="8"/>
+    </row>
+    <row r="19" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L19" s="16"/>
+      <c r="M19" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O19" s="7"/>
+      <c r="P19" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L22" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O22" s="7"/>
+      <c r="P22" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="P17" s="3" t="s">
+    </row>
+    <row r="23" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L23" s="16"/>
+      <c r="M23" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O23" s="7"/>
+      <c r="P23" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M24" s="13"/>
+    </row>
+    <row r="25" spans="5:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L26" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="O26" s="7"/>
+      <c r="P26" s="8"/>
+    </row>
+    <row r="27" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="L27" s="16"/>
+      <c r="M27" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="L28" s="16"/>
+      <c r="M28" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P28" s="4"/>
+    </row>
+    <row r="29" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L29" s="16"/>
+      <c r="M29" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O29" s="7"/>
+      <c r="P29" s="8"/>
+    </row>
+    <row r="30" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="L30" s="16"/>
+      <c r="M30" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="L31" s="16"/>
+      <c r="M31" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="O31" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="18" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="M18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="M19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="M20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="24" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E24" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E25" t="s">
-        <v>67</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="M26" s="1" t="s">
+      <c r="P31" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="L32" s="16"/>
+      <c r="M32" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="P32" s="4"/>
+    </row>
+    <row r="33" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L33" s="16"/>
+      <c r="M33" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="M27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P27" s="3"/>
-    </row>
-    <row r="30" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="M30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="P30" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="M31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="P31" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="O33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P33" s="4"/>
+    </row>
+    <row r="34" spans="12:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L34" s="16"/>
+      <c r="M34" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O34" s="7"/>
+      <c r="P34" s="8"/>
+    </row>
+    <row r="35" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="M35" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="L26:L34"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L4:L10"/>
+    <mergeCell ref="L13:L19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/current_io_docs.xlsx
+++ b/current_io_docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amir\Documents\git_repos\taxsim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66182E57-EEB5-4162-B5CE-6DC20A59D12F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31AD0B7-DFA9-4D03-8F86-D5DF45DA3971}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16185" windowHeight="7410" xr2:uid="{D03C11A7-0F7D-4097-B472-E5FA9DA97E82}"/>
   </bookViews>
@@ -31,55 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="89">
-  <si>
-    <t>filing_status</t>
-  </si>
-  <si>
-    <t>child_dep</t>
-  </si>
-  <si>
-    <t>nonchild_dep</t>
-  </si>
-  <si>
-    <t>ordinary_income1</t>
-  </si>
-  <si>
-    <t>ordinary_income2</t>
-  </si>
-  <si>
-    <t>business_income</t>
-  </si>
-  <si>
-    <t>ss_income</t>
-  </si>
-  <si>
-    <t>qualified_income</t>
-  </si>
-  <si>
-    <t>401k_contributions</t>
-  </si>
-  <si>
-    <t>medical_expenses</t>
-  </si>
-  <si>
-    <t>sl_income_tax</t>
-  </si>
-  <si>
-    <t>sl_property_tax</t>
-  </si>
-  <si>
-    <t>interest_paid</t>
-  </si>
-  <si>
-    <t>charity_contributions</t>
-  </si>
-  <si>
-    <t>other_itemized</t>
-  </si>
-  <si>
-    <t>INPUTS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
   <si>
     <t>agi</t>
   </si>
@@ -129,9 +81,6 @@
     <t>Cash Income</t>
   </si>
   <si>
-    <t>gross_income + employer_payroll_tax</t>
-  </si>
-  <si>
     <t>Income from all sources plus the employer's share of payroll taxes.</t>
   </si>
   <si>
@@ -159,9 +108,6 @@
     <t>Average Income Tax Rate</t>
   </si>
   <si>
-    <t>employee_payroll_tax + employer_payroll_tax</t>
-  </si>
-  <si>
     <t>Additional tax on high-income taxpayers' investment income above specified thresholds.</t>
   </si>
   <si>
@@ -216,27 +162,12 @@
     <t>(Includes Pease Limitation when applicable)</t>
   </si>
   <si>
-    <t>TO BE ADDED</t>
-  </si>
-  <si>
-    <t>business_income_service</t>
-  </si>
-  <si>
-    <t>MARG_RATE_BOUND</t>
-  </si>
-  <si>
-    <t>ASSUMED_MORTGAGE_RATE</t>
-  </si>
-  <si>
     <t>Additional Medicare Tax</t>
   </si>
   <si>
     <t>Adjusted gross income minus personal exemptions and deductions allowed under the regular income tax.</t>
   </si>
   <si>
-    <t>income_tax_after_credits/(gross_income + employer_payroll_tax)</t>
-  </si>
-  <si>
     <t>Total tax liability includes the household's income tax liability plus its payroll tax liability.</t>
   </si>
   <si>
@@ -298,13 +229,37 @@
   </si>
   <si>
     <t>Income Tax After Credits and Other Taxes</t>
+  </si>
+  <si>
+    <t>ordinary_income_after_401k</t>
+  </si>
+  <si>
+    <t>Ordinary Income After 401k Contributions</t>
+  </si>
+  <si>
+    <t>avg_effective_tax_rate</t>
+  </si>
+  <si>
+    <t>total_payroll_tax</t>
+  </si>
+  <si>
+    <t>cash_income</t>
+  </si>
+  <si>
+    <t>Tax Before Credits with AMT</t>
+  </si>
+  <si>
+    <t>(Includes AMT liability)</t>
+  </si>
+  <si>
+    <t>Total income subject to tax after adjustments for exclusions and additions.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,14 +286,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -522,30 +469,29 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -863,15 +809,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A248377F-C8B0-4405-98F3-3E7614809E38}">
-  <dimension ref="E1:P35"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="126.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.140625" customWidth="1"/>
     <col min="12" max="12" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="65.85546875" bestFit="1" customWidth="1"/>
@@ -881,424 +831,370 @@
     <col min="17" max="17" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E1" s="2" t="s">
+    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="M2" s="17" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="12"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
+      <c r="B29" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="17"/>
+      <c r="B30" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-    </row>
-    <row r="4" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" s="7"/>
-      <c r="P4" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L6" s="15"/>
-      <c r="M6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O6" s="7"/>
-      <c r="P6" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L7" s="15"/>
-      <c r="M7" s="9" t="s">
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="17"/>
+      <c r="B31" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="17"/>
+      <c r="B32" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="17"/>
+      <c r="B33" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="17"/>
+      <c r="B34" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="17"/>
+      <c r="B35" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O7" s="7"/>
-      <c r="P7" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O8" s="7"/>
-      <c r="P8" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L9" s="15"/>
-      <c r="M9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="O9" s="11"/>
-      <c r="P9" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="O10" s="7"/>
-      <c r="P10" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-    </row>
-    <row r="12" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="M12" s="13"/>
-    </row>
-    <row r="13" spans="5:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L13" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="O13" s="7"/>
-      <c r="P13" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14" s="16"/>
-      <c r="M14" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" t="s">
-        <v>64</v>
-      </c>
-      <c r="L15" s="16"/>
-      <c r="M15" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
+      <c r="E35" s="3"/>
+      <c r="M35" s="12"/>
+    </row>
+    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L16" s="16"/>
-      <c r="M16" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" s="16"/>
-      <c r="M17" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L18" s="16"/>
-      <c r="M18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O18" s="7"/>
-      <c r="P18" s="8"/>
-    </row>
-    <row r="19" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L19" s="16"/>
-      <c r="M19" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="O19" s="7"/>
-      <c r="P19" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L22" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="O22" s="7"/>
-      <c r="P22" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L23" s="16"/>
-      <c r="M23" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="O23" s="7"/>
-      <c r="P23" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M24" s="13"/>
-    </row>
-    <row r="25" spans="5:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L26" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="M26" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N26" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="O26" s="7"/>
-      <c r="P26" s="8"/>
-    </row>
-    <row r="27" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="L27" s="16"/>
-      <c r="M27" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P27" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="L28" s="16"/>
-      <c r="M28" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P28" s="4"/>
-    </row>
-    <row r="29" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L29" s="16"/>
-      <c r="M29" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="N29" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="O29" s="7"/>
-      <c r="P29" s="8"/>
-    </row>
-    <row r="30" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="L30" s="16"/>
-      <c r="M30" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P30" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="L31" s="16"/>
-      <c r="M31" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="O31" s="3" t="s">
+      <c r="C36" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="P31" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="L32" s="16"/>
-      <c r="M32" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="P32" s="4"/>
-    </row>
-    <row r="33" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L33" s="16"/>
-      <c r="M33" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P33" s="4"/>
-    </row>
-    <row r="34" spans="12:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L34" s="16"/>
-      <c r="M34" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N34" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="O34" s="7"/>
-      <c r="P34" s="8"/>
-    </row>
-    <row r="35" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="M35" s="13"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="L26:L34"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="L4:L10"/>
-    <mergeCell ref="L13:L19"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/current_io_docs.xlsx
+++ b/current_io_docs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amir\Documents\git_repos\taxsim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aelsi/Documents/taxsim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31AD0B7-DFA9-4D03-8F86-D5DF45DA3971}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587B051A-19A9-B349-88DD-6EFA87C18F5E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16185" windowHeight="7410" xr2:uid="{D03C11A7-0F7D-4097-B472-E5FA9DA97E82}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18860" xr2:uid="{D03C11A7-0F7D-4097-B472-E5FA9DA97E82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
   <si>
     <t>agi</t>
   </si>
@@ -253,6 +252,12 @@
   </si>
   <si>
     <t>Total income subject to tax after adjustments for exclusions and additions.</t>
+  </si>
+  <si>
+    <t>sched_se_tax</t>
+  </si>
+  <si>
+    <t>Self-Employment Tax</t>
   </si>
 </sst>
 </file>
@@ -809,29 +814,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A248377F-C8B0-4405-98F3-3E7614809E38}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="126.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
-    <col min="12" max="12" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="65.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="111.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="126.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.1640625" customWidth="1"/>
+    <col min="12" max="12" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="65.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="111.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>63</v>
       </c>
@@ -848,7 +853,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="14" t="s">
         <v>14</v>
       </c>
@@ -856,13 +861,13 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>53</v>
       </c>
@@ -877,7 +882,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
       <c r="B5" s="8" t="s">
         <v>66</v>
@@ -888,7 +893,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
       <c r="B6" s="8" t="s">
         <v>0</v>
@@ -901,7 +906,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
       <c r="B7" s="8" t="s">
         <v>1</v>
@@ -914,7 +919,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
       <c r="B8" s="8" t="s">
         <v>13</v>
@@ -927,7 +932,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
       <c r="B9" s="8" t="s">
         <v>69</v>
@@ -940,7 +945,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>14</v>
@@ -953,7 +958,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="16"/>
       <c r="B11" s="8" t="s">
         <v>68</v>
@@ -966,16 +971,16 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="12"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>56</v>
       </c>
@@ -990,7 +995,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="17"/>
       <c r="B15" s="13" t="s">
         <v>2</v>
@@ -1000,7 +1005,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
       <c r="B16" s="13" t="s">
         <v>3</v>
@@ -1012,7 +1017,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="17"/>
       <c r="B17" s="13" t="s">
         <v>5</v>
@@ -1022,7 +1027,7 @@
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>
       <c r="B18" s="13" t="s">
         <v>4</v>
@@ -1032,7 +1037,7 @@
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="17"/>
       <c r="B19" s="8" t="s">
         <v>1</v>
@@ -1043,7 +1048,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B20" s="8" t="s">
         <v>46</v>
       </c>
@@ -1055,7 +1060,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
         <v>54</v>
       </c>
@@ -1070,7 +1075,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B24" s="8" t="s">
         <v>7</v>
       </c>
@@ -1082,7 +1087,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="8" t="s">
         <v>8</v>
       </c>
@@ -1091,7 +1096,7 @@
       </c>
       <c r="D25" s="6"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
         <v>55</v>
       </c>
@@ -1106,7 +1111,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="17"/>
       <c r="B29" s="13" t="s">
         <v>47</v>
@@ -1118,7 +1123,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="17"/>
       <c r="B30" s="13" t="s">
         <v>10</v>
@@ -1128,7 +1133,7 @@
       </c>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
       <c r="B31" s="8" t="s">
         <v>49</v>
@@ -1139,7 +1144,7 @@
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="17"/>
       <c r="B32" s="13" t="s">
         <v>12</v>
@@ -1151,7 +1156,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="17"/>
       <c r="B33" s="13" t="s">
         <v>11</v>
@@ -1163,36 +1168,46 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="17"/>
       <c r="B34" s="13" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="17"/>
       <c r="B35" s="13" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="E35" s="3"/>
       <c r="M35" s="12"/>
     </row>
-    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="8" t="s">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="17"/>
+      <c r="B36" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="B37" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="7"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
